--- a/src/test/resources/excel/TCWPOMFILE.xlsx
+++ b/src/test/resources/excel/TCWPOMFILE.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techbrain\eclipse-workspace\TCWPOM\src\test\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024B12FC-A310-42A1-83EE-DB3059B4B6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="addTaskTest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +24,31 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Null Tasks</t>
+  </si>
+  <si>
+    <t>Automation skills</t>
+  </si>
+  <si>
+    <t>2nd task</t>
+  </si>
+  <si>
+    <t>null pointer</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +359,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/excel/TCWPOMFILE.xlsx
+++ b/src/test/resources/excel/TCWPOMFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techbrain\eclipse-workspace\TCWPOM\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024B12FC-A310-42A1-83EE-DB3059B4B6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565042CA-E31D-4FCD-BA78-7DA69D4D7B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>Automation skills</t>
   </si>
   <si>
-    <t>2nd task</t>
-  </si>
-  <si>
-    <t>null pointer</t>
+    <t>emp</t>
+  </si>
+  <si>
+    <t>Jay Z</t>
   </si>
 </sst>
 </file>
@@ -360,35 +360,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/test/resources/excel/TCWPOMFILE.xlsx
+++ b/src/test/resources/excel/TCWPOMFILE.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techbrain\eclipse-workspace\TCWPOM\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565042CA-E31D-4FCD-BA78-7DA69D4D7B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600C02CD-9259-452A-B345-4859D975045A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="addTaskTest" sheetId="1" r:id="rId1"/>
+    <sheet name="addTimeSheetTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>task</t>
   </si>
@@ -43,19 +44,71 @@
   </si>
   <si>
     <t>Jay Z</t>
+  </si>
+  <si>
+    <t>Urvashi N</t>
+  </si>
+  <si>
+    <t>clockInDt</t>
+  </si>
+  <si>
+    <t>clockOutDt</t>
+  </si>
+  <si>
+    <t>clockInTime</t>
+  </si>
+  <si>
+    <t>clockOutTime</t>
+  </si>
+  <si>
+    <t>17/08/2022</t>
+  </si>
+  <si>
+    <t>07:20 PM</t>
+  </si>
+  <si>
+    <t>10:00 AM</t>
+  </si>
+  <si>
+    <t>addTimeLocation</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>addTimeJob</t>
+  </si>
+  <si>
+    <t>Developing</t>
+  </si>
+  <si>
+    <t>addTimeNotes</t>
+  </si>
+  <si>
+    <t>Adding the timesheet through Automation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="[$-10409]hh:mm\ AM/PM;@"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +131,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,7 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -393,4 +451,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6C4EA1-1A02-47E2-A0CD-2A13DD69283F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/excel/TCWPOMFILE.xlsx
+++ b/src/test/resources/excel/TCWPOMFILE.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techbrain\eclipse-workspace\TCWPOM\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600C02CD-9259-452A-B345-4859D975045A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA1CE8C-6322-4739-BB13-D38B26F3A744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29055" yWindow="900" windowWidth="15060" windowHeight="14325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="addTaskTest" sheetId="1" r:id="rId1"/>
     <sheet name="addTimeSheetTest" sheetId="2" r:id="rId2"/>
+    <sheet name="addAbsenceTest" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>task</t>
   </si>
@@ -86,6 +87,51 @@
   </si>
   <si>
     <t>Adding the timesheet through Automation</t>
+  </si>
+  <si>
+    <t>Twentyone 21</t>
+  </si>
+  <si>
+    <t>absenceType</t>
+  </si>
+  <si>
+    <t>Fiscal Year</t>
+  </si>
+  <si>
+    <t>absenceStDt</t>
+  </si>
+  <si>
+    <t>20/08/2022</t>
+  </si>
+  <si>
+    <t>absenceEndDt</t>
+  </si>
+  <si>
+    <t>absenceStTime</t>
+  </si>
+  <si>
+    <t>absenceEndTime</t>
+  </si>
+  <si>
+    <t>05:30 PM</t>
+  </si>
+  <si>
+    <t>absenceLocation</t>
+  </si>
+  <si>
+    <t>Cramer Dentistry</t>
+  </si>
+  <si>
+    <t>absenceJob</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>absenceNotes</t>
+  </si>
+  <si>
+    <t>Adding the absence through automated test case</t>
   </si>
 </sst>
 </file>
@@ -93,8 +139,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[$-10409]hh:mm\ AM/PM;@"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-10409]hh:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -135,9 +181,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6C4EA1-1A02-47E2-A0CD-2A13DD69283F}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -522,4 +568,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8ABE68-3F9E-4A8B-9CCE-6EF36634D0D5}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/excel/TCWPOMFILE.xlsx
+++ b/src/test/resources/excel/TCWPOMFILE.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techbrain\eclipse-workspace\TCWPOM\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA1CE8C-6322-4739-BB13-D38B26F3A744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081F0FAF-2EBA-44C3-BD13-FF85733A42B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29055" yWindow="900" windowWidth="15060" windowHeight="14325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35325" yWindow="1785" windowWidth="15060" windowHeight="14325" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="addTaskTest" sheetId="1" r:id="rId1"/>
     <sheet name="addTimeSheetTest" sheetId="2" r:id="rId2"/>
     <sheet name="addAbsenceTest" sheetId="3" r:id="rId3"/>
+    <sheet name="addScheduleForEmpTest" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>task</t>
   </si>
@@ -132,6 +133,54 @@
   </si>
   <si>
     <t>Adding the absence through automated test case</t>
+  </si>
+  <si>
+    <t>desiredDate</t>
+  </si>
+  <si>
+    <t>desiredEmp</t>
+  </si>
+  <si>
+    <t>2022-08-13</t>
+  </si>
+  <si>
+    <t>stTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>locDrpDwn</t>
+  </si>
+  <si>
+    <t>jobDrpDwn</t>
+  </si>
+  <si>
+    <t>customPay</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>PesonalNote</t>
+  </si>
+  <si>
+    <t>03:00 PM</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>My Notes</t>
+  </si>
+  <si>
+    <t>Your Notes</t>
+  </si>
+  <si>
+    <t>Urvashi Jk</t>
   </si>
 </sst>
 </file>
@@ -574,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8ABE68-3F9E-4A8B-9CCE-6EF36634D0D5}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -642,4 +691,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA1527-3EC2-44DE-9048-C065F551355B}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2">
+        <v>52.36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/excel/TCWPOMFILE.xlsx
+++ b/src/test/resources/excel/TCWPOMFILE.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techbrain\eclipse-workspace\TCWPOM\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081F0FAF-2EBA-44C3-BD13-FF85733A42B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A900594-31C4-4944-A501-45EA583834C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35325" yWindow="1785" windowWidth="15060" windowHeight="14325" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="615" windowWidth="15060" windowHeight="14325" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="addTaskTest" sheetId="1" r:id="rId1"/>
     <sheet name="addTimeSheetTest" sheetId="2" r:id="rId2"/>
     <sheet name="addAbsenceTest" sheetId="3" r:id="rId3"/>
     <sheet name="addScheduleForEmpTest" sheetId="4" r:id="rId4"/>
+    <sheet name="deleteScheduleForEmpTest" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>task</t>
   </si>
@@ -697,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA1527-3EC2-44DE-9048-C065F551355B}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,5 +764,80 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDFC30-90E8-4C65-A026-DB28372DD6A0}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2">
+        <v>52.36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/excel/TCWPOMFILE.xlsx
+++ b/src/test/resources/excel/TCWPOMFILE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techbrain\eclipse-workspace\TCWPOM\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A900594-31C4-4944-A501-45EA583834C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30606816-7380-49B1-BB7E-0C28C220864C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="615" windowWidth="15060" windowHeight="14325" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4395" yWindow="2085" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="addTaskTest" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>task</t>
   </si>
@@ -142,9 +142,6 @@
     <t>desiredEmp</t>
   </si>
   <si>
-    <t>2022-08-13</t>
-  </si>
-  <si>
     <t>stTime</t>
   </si>
   <si>
@@ -181,7 +178,16 @@
     <t>Your Notes</t>
   </si>
   <si>
-    <t>Urvashi Jk</t>
+    <t>2022-09-11</t>
+  </si>
+  <si>
+    <t>Manager Nine</t>
+  </si>
+  <si>
+    <t>Hackshaw</t>
+  </si>
+  <si>
+    <t>2022-09-09</t>
   </si>
 </sst>
 </file>
@@ -192,7 +198,7 @@
     <numFmt numFmtId="164" formatCode="[$-10409]hh:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +211,13 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4C637B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,13 +240,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,7 +713,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,54 +726,54 @@
         <v>36</v>
       </c>
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
         <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
       </c>
       <c r="G2">
         <v>52.36</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +787,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,54 +800,54 @@
         <v>36</v>
       </c>
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
         <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
       </c>
       <c r="G2">
         <v>52.36</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/TCWPOMFILE.xlsx
+++ b/src/test/resources/excel/TCWPOMFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techbrain\eclipse-workspace\TCWPOM\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30606816-7380-49B1-BB7E-0C28C220864C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E236A4DA-365B-4354-9459-932239757266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4395" yWindow="2085" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>task</t>
   </si>
@@ -176,12 +176,6 @@
   </si>
   <si>
     <t>Your Notes</t>
-  </si>
-  <si>
-    <t>2022-09-11</t>
-  </si>
-  <si>
-    <t>Manager Nine</t>
   </si>
   <si>
     <t>Hackshaw</t>
@@ -198,7 +192,7 @@
     <numFmt numFmtId="164" formatCode="[$-10409]hh:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,13 +205,6 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4C637B"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,14 +227,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,7 +699,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,10 +735,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
@@ -787,7 +773,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,10 +809,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>

--- a/src/test/resources/excel/TCWPOMFILE.xlsx
+++ b/src/test/resources/excel/TCWPOMFILE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techbrain\eclipse-workspace\TCWPOM\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E236A4DA-365B-4354-9459-932239757266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6F1E28-0CFB-47B6-AE0D-398BEEB4DFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="2085" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="addTaskTest" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="addAbsenceTest" sheetId="3" r:id="rId3"/>
     <sheet name="addScheduleForEmpTest" sheetId="4" r:id="rId4"/>
     <sheet name="deleteScheduleForEmpTest" sheetId="5" r:id="rId5"/>
+    <sheet name="reimbursementTest" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>task</t>
   </si>
@@ -182,6 +183,24 @@
   </si>
   <si>
     <t>2022-09-09</t>
+  </si>
+  <si>
+    <t>remEmpSS</t>
+  </si>
+  <si>
+    <t>Maulik Dhaduk</t>
+  </si>
+  <si>
+    <t>remStDate</t>
+  </si>
+  <si>
+    <t>remEndDate</t>
+  </si>
+  <si>
+    <t>13/05/2021</t>
+  </si>
+  <si>
+    <t>28/06/2022</t>
   </si>
 </sst>
 </file>
@@ -772,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDFC30-90E8-4C65-A026-DB28372DD6A0}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -840,4 +859,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA630366-5EBA-4AF8-B735-F791F1F8ECFB}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>